--- a/biology/Zoologie/Bee_Movie___Drôle_d'abeille/Bee_Movie___Drôle_d'abeille.xlsx
+++ b/biology/Zoologie/Bee_Movie___Drôle_d'abeille/Bee_Movie___Drôle_d'abeille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bee_Movie_:_Dr%C3%B4le_d%27abeille</t>
+          <t>Bee_Movie_:_Drôle_d'abeille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bee Movie : Drôle d'abeille ou Drôle d'abeille au Québec (Bee Movie) est un film d'animation en images de synthèse écrit et produit par Jerry Seinfeld pour DreamWorks SKG, sorti en 2007 et réalisé par Steve Hickner et Simon J. Smith.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bee_Movie_:_Dr%C3%B4le_d%27abeille</t>
+          <t>Bee_Movie_:_Drôle_d'abeille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fraîchement diplômée, une abeille connue sous le nom de Barry B. Benson perd ses illusions à la perspective de n'avoir qu'un seul plan de carrière : fabriquer du miel…
 Alors qu'il s'aventure hors de la ruche pour la première fois, il brise l'une des règles fondamentales du monde des abeilles : il adresse la parole à un humain : une fleuriste de New York, Vanessa. Il est choqué de constater que les humains volent et mangent le miel que produisent les abeilles, et ce depuis des siècles ! Il se donne alors pour mission d'assigner la race humaine en justice pour vol de miel et de faire respecter les droits des abeilles, mais cela sans même penser aux conséquences.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bee_Movie_:_Dr%C3%B4le_d%27abeille</t>
+          <t>Bee_Movie_:_Drôle_d'abeille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
 Titre original : Bee Movie
@@ -561,12 +577,12 @@
 Montage : Nick Fletcher
 Animation : Line Andersen, Antony Gray, John Hill et Gabe Hordos
 Distribution : Paramount Pictures
-Budget : 150 000 000 $[2]
+Budget : 150 000 000 $
 Format : Couleurs - 35 mm (Kodak)- 1,85:1 - Son Dolby Digital / DTS / SDDS
 Durée : 87 minutes
-Pays d'origine :  États-Unis,  Australie[1]
+Pays d'origine :  États-Unis,  Australie
 Langues : Français, Allemand, Anglais, Arabe, Coréen, Espagnol, Japonais
-Dates de sortie[3] :
+Dates de sortie :
  États-Unis : 28 octobre 2007, avant-première à Westwood et 2 novembre 2007 sur le reste du territoire
  Royaume-Uni : 28 octobre 2007 au Festival du film de Londres
  Canada : 2 novembre 2007
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bee_Movie_:_Dr%C3%B4le_d%27abeille</t>
+          <t>Bee_Movie_:_Drôle_d'abeille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,6 +615,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bee_Movie_:_Dr%C3%B4le_d%27abeille</t>
+          <t>Bee_Movie_:_Drôle_d'abeille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,9 +642,11 @@
           <t>Adaptation en jeu vidéo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Un jeu vidéo se basant sur le film est sorti le 16 novembre 2007. Il est développé par le studio Beenox[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un jeu vidéo se basant sur le film est sorti le 16 novembre 2007. Il est développé par le studio Beenox.
 Il est disponible sur les machines suivantes :
 PC
 Xbox 360
